--- a/recombination/rdp_stats_summary_compact_3sig.xlsx
+++ b/recombination/rdp_stats_summary_compact_3sig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94B652-40FE-7841-9EF6-D7AC7CE72A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A80F-2F21-6048-A8C6-2C0BD9B2C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30780" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="209">
   <si>
     <t xml:space="preserve"> RDP</t>
   </si>
@@ -629,6 +629,24 @@
   </si>
   <si>
     <t>OR951335</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <t>Unknown (PP711909)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711930)</t>
+  </si>
+  <si>
+    <t>PP711913</t>
+  </si>
+  <si>
+    <t>Unknown (PP711930)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711909)</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1247,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1245,7 +1263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1622,17 +1639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1651,7 +1667,7 @@
       <c r="E1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1695,7 +1711,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
@@ -1736,7 +1752,7 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
@@ -1777,7 +1793,7 @@
       <c r="E4" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
@@ -1809,7 +1825,7 @@
       <c r="B5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5"/>
@@ -1831,7 +1847,7 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
@@ -1877,22 +1893,22 @@
         <v>168</v>
       </c>
       <c r="C8">
-        <v>1365</v>
+        <v>7547</v>
       </c>
       <c r="D8">
-        <v>1464</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>16</v>
+        <v>203</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6.8400000000000004E-4</v>
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.22735863970839E-5</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
@@ -1900,14 +1916,14 @@
       <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="14">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1.74E-4</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>8</v>
+      <c r="K8">
+        <v>1.9594426605551001E-4</v>
+      </c>
+      <c r="L8">
+        <v>3.49790437275121E-4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3.7328050331658799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1917,14 +1933,11 @@
       <c r="B9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
+      <c r="F9" t="s">
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -1937,37 +1950,37 @@
         <v>168</v>
       </c>
       <c r="C10">
-        <v>3218</v>
+        <v>814</v>
       </c>
       <c r="D10">
-        <v>4049</v>
+        <v>1160</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>16</v>
+        <v>203</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="11">
-        <v>6.0099999999999997E-4</v>
-      </c>
-      <c r="I10" s="14">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="14">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="L10" s="14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>8</v>
+        <v>207</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7.9074702580138306E-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>2.19526240681252E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.05950238646865E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.87328861043032E-4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>4.3266160872050798E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1977,8 +1990,8 @@
       <c r="B11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
+      <c r="G11" t="s">
+        <v>208</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -1990,11 +2003,39 @@
       <c r="B12" s="5" t="s">
         <v>168</v>
       </c>
+      <c r="C12">
+        <v>1365</v>
+      </c>
+      <c r="D12">
+        <v>1464</v>
+      </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="M12" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1.74E-4</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -2003,39 +2044,17 @@
       <c r="B13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>2830</v>
-      </c>
       <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="11">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1.5299999999999999E-3</v>
-      </c>
-      <c r="K13" s="14">
-        <v>3.4299999999999999E-7</v>
-      </c>
-      <c r="L13" s="14">
-        <v>3.6799999999999999E-6</v>
-      </c>
-      <c r="M13" s="10">
-        <v>5.2200000000000002E-5</v>
-      </c>
+      <c r="H13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
@@ -2045,37 +2064,37 @@
         <v>168</v>
       </c>
       <c r="C14">
-        <v>3986</v>
+        <v>3218</v>
       </c>
       <c r="D14">
-        <v>4905</v>
+        <v>4049</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="14">
-        <v>6.2700000000000004E-3</v>
+        <v>27</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="14">
-        <v>1.04E-2</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="L14" s="14">
-        <v>6.1799999999999995E-4</v>
-      </c>
-      <c r="M14" s="10">
-        <v>1.4799999999999999E-4</v>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2085,39 +2104,11 @@
       <c r="B15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C15">
-        <v>7387</v>
-      </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1.35E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>1.8845876000000001E-2</v>
-      </c>
-      <c r="K15" s="14">
-        <v>1.01E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <v>5.3400000000000001E-3</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
@@ -2126,39 +2117,11 @@
       <c r="B16" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="14">
-        <v>4.49E-5</v>
-      </c>
-      <c r="J16" s="14">
-        <v>2.8899999999999999E-6</v>
-      </c>
-      <c r="K16" s="14">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
@@ -2167,102 +2130,158 @@
       <c r="B17" s="5" t="s">
         <v>168</v>
       </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>2830</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
       <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="M17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="K17" s="14">
+        <v>3.4299999999999999E-7</v>
+      </c>
+      <c r="L17" s="14">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="M17" s="10">
+        <v>5.2200000000000002E-5</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18">
-        <v>7198</v>
+        <v>3986</v>
       </c>
       <c r="D18">
-        <v>560</v>
+        <v>4905</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1.83E-4</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1.46E-6</v>
+        <v>31</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
       </c>
       <c r="J18" s="14">
-        <v>1.5799999999999999E-8</v>
+        <v>6.2700000000000004E-3</v>
       </c>
       <c r="K18" s="14">
-        <v>6.5899999999999996E-6</v>
+        <v>1.04E-2</v>
       </c>
       <c r="L18" s="14">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>8</v>
+        <v>6.1799999999999995E-4</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1.4799999999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="C19">
+        <v>7387</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="M19" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>1.8845876000000001E-2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1.01E-2</v>
+      </c>
+      <c r="L19" s="14">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20">
-        <v>5987</v>
-      </c>
-      <c r="D20">
-        <v>6127</v>
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="11">
-        <v>5.0000000000000001E-4</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="14">
-        <v>2.63E-2</v>
+        <v>4.49E-5</v>
       </c>
       <c r="J20" s="14">
-        <v>4.46E-4</v>
+        <v>2.8899999999999999E-6</v>
       </c>
       <c r="K20" s="14">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3.64E-3</v>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>8</v>
@@ -2270,44 +2289,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>7197</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="14">
-        <v>5.7600000000000001E-4</v>
-      </c>
-      <c r="K21" s="14">
-        <v>6.7299999999999999E-3</v>
-      </c>
-      <c r="L21" s="14">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
@@ -2316,11 +2307,39 @@
       <c r="B22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="C22">
+        <v>7198</v>
+      </c>
+      <c r="D22">
+        <v>560</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="M22" s="6"/>
+      <c r="H22" s="11">
+        <v>1.83E-4</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1.46E-6</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1.5799999999999999E-8</v>
+      </c>
+      <c r="K22" s="14">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
@@ -2329,39 +2348,11 @@
       <c r="B23" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C23">
-        <v>1745</v>
-      </c>
-      <c r="D23">
-        <v>1968</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="11">
-        <v>6.0299999999999998E-3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="14">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="M23" s="10">
-        <v>4.02E-2</v>
-      </c>
+      <c r="H23" s="5"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
@@ -2370,11 +2361,39 @@
       <c r="B24" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="C24">
+        <v>5987</v>
+      </c>
+      <c r="D24">
+        <v>6127</v>
+      </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="M24" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="11">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4.46E-4</v>
+      </c>
+      <c r="K24" s="14">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="L24" s="14">
+        <v>3.64E-3</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
@@ -2383,35 +2402,35 @@
       <c r="B25" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C25">
-        <v>1012</v>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>1156</v>
+        <v>7197</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1.52E-2</v>
-      </c>
-      <c r="I25" s="14">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="14">
+        <v>5.7600000000000001E-4</v>
       </c>
       <c r="K25" s="14">
-        <v>9.1299999999999992E-3</v>
-      </c>
-      <c r="L25" t="s">
-        <v>8</v>
+        <v>6.7299999999999999E-3</v>
+      </c>
+      <c r="L25" s="14">
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>8</v>
@@ -2424,99 +2443,99 @@
       <c r="B26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G26" t="s">
-        <v>36</v>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C27">
-        <v>7224</v>
+        <v>1745</v>
       </c>
       <c r="D27">
-        <v>560</v>
+        <v>1968</v>
       </c>
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27" s="11">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I27" s="14">
-        <v>3.6300000000000001E-5</v>
-      </c>
-      <c r="J27" s="14">
-        <v>1.92E-7</v>
-      </c>
-      <c r="K27" s="14">
-        <v>1.9599999999999999E-4</v>
+        <v>6.0299999999999998E-3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
       </c>
       <c r="L27" s="14">
-        <v>1.36E-4</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>8</v>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <v>4.02E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G28" t="s">
-        <v>36</v>
+      <c r="E28" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C29">
-        <v>6939</v>
+        <v>1012</v>
       </c>
       <c r="D29">
-        <v>640</v>
+        <v>1156</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>43</v>
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1.52E-2</v>
       </c>
       <c r="I29" s="14">
-        <v>5.0200000000000002E-3</v>
-      </c>
-      <c r="J29" s="14">
-        <v>7.6600000000000005E-5</v>
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="14">
-        <v>8.9099999999999997E-5</v>
+        <v>9.1299999999999992E-3</v>
       </c>
       <c r="L29" t="s">
         <v>8</v>
@@ -2527,13 +2546,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E30" t="s">
-        <v>44</v>
+      <c r="G30" t="s">
+        <v>36</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -2546,34 +2565,34 @@
         <v>170</v>
       </c>
       <c r="C31">
-        <v>5987</v>
+        <v>7224</v>
       </c>
       <c r="D31">
-        <v>6127</v>
+        <v>560</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H31" s="11">
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I31" s="14">
+        <v>3.6300000000000001E-5</v>
       </c>
       <c r="J31" s="14">
-        <v>1.81E-3</v>
+        <v>1.92E-7</v>
       </c>
       <c r="K31" s="14">
-        <v>2.1499999999999998E-2</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="L31" s="14">
-        <v>1.26E-2</v>
+        <v>1.36E-4</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>8</v>
@@ -2581,205 +2600,205 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32">
-        <v>489</v>
-      </c>
-      <c r="D32">
-        <v>996</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="14">
-        <v>5.31E-4</v>
-      </c>
-      <c r="K32" s="14">
-        <v>1.4599999999999999E-3</v>
-      </c>
-      <c r="L32" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="10">
-        <v>1.5800000000000002E-2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="M33" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="C33">
+        <v>6939</v>
+      </c>
+      <c r="D33">
+        <v>640</v>
+      </c>
+      <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="14">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="J33" s="14">
+        <v>7.6600000000000005E-5</v>
+      </c>
+      <c r="K33" s="14">
+        <v>8.9099999999999997E-5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34">
-        <v>3698</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="11">
-        <v>8.9400000000000005E-4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="14">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K34" s="14">
-        <v>6.7799999999999996E-3</v>
-      </c>
-      <c r="L34" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35">
-        <v>8268</v>
+        <v>5987</v>
       </c>
       <c r="D35">
-        <v>1109</v>
+        <v>6127</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H35" s="11">
-        <v>5.5899999999999997E-5</v>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="14">
-        <v>3.7599999999999998E-4</v>
+        <v>1.81E-3</v>
       </c>
       <c r="K35" s="14">
-        <v>5.6499999999999996E-3</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="L35" s="14">
-        <v>1.21E-4</v>
-      </c>
-      <c r="M35" s="10">
-        <v>3.3700000000000002E-3</v>
+        <v>1.26E-2</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C36">
+        <v>489</v>
+      </c>
+      <c r="D36">
+        <v>996</v>
+      </c>
       <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="M36" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="14">
+        <v>5.31E-4</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1.5800000000000002E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E37" t="s">
-        <v>59</v>
+      <c r="F37" t="s">
+        <v>51</v>
       </c>
       <c r="H37" s="5"/>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C38">
-        <v>3107</v>
-      </c>
-      <c r="D38">
-        <v>3399</v>
+        <v>3698</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H38" s="11">
-        <v>1.56E-4</v>
+        <v>8.9400000000000005E-4</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="14">
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="10">
-        <v>3.5400000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K38" s="14">
+        <v>6.7799999999999996E-3</v>
+      </c>
+      <c r="L38" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2789,11 +2808,39 @@
       <c r="B39" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C39">
+        <v>8268</v>
+      </c>
+      <c r="D39">
+        <v>1109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
       <c r="G39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="M39" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="H39" s="11">
+        <v>5.5899999999999997E-5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="14">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="K39" s="14">
+        <v>5.6499999999999996E-3</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1.21E-4</v>
+      </c>
+      <c r="M39" s="10">
+        <v>3.3700000000000002E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
@@ -2802,8 +2849,8 @@
       <c r="B40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G40" t="s">
-        <v>54</v>
+      <c r="E40" t="s">
+        <v>58</v>
       </c>
       <c r="H40" s="5"/>
       <c r="M40" s="6"/>
@@ -2815,39 +2862,11 @@
       <c r="B41" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C41">
-        <v>1482</v>
-      </c>
-      <c r="D41">
-        <v>1817</v>
-      </c>
       <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="11">
-        <v>4.9799999999999996E-4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="14">
-        <v>5.1399999999999996E-3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="10">
-        <v>8.4499999999999992E-3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
@@ -2856,14 +2875,39 @@
       <c r="B42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>50</v>
+      <c r="C42">
+        <v>3107</v>
+      </c>
+      <c r="D42">
+        <v>3399</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="M42" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1.56E-4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="14">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="10">
+        <v>3.5400000000000001E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
@@ -2872,11 +2916,8 @@
       <c r="B43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H43" s="5"/>
       <c r="M43" s="6"/>
@@ -2888,39 +2929,11 @@
       <c r="B44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C44">
-        <v>3894</v>
-      </c>
-      <c r="D44">
-        <v>4511</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>53</v>
-      </c>
       <c r="G44" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="14">
-        <v>5.7099999999999998E-3</v>
-      </c>
-      <c r="K44" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L44">
-        <v>3.761435E-3</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
@@ -2929,11 +2942,39 @@
       <c r="B45" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="M45" s="6"/>
+      <c r="C45">
+        <v>1482</v>
+      </c>
+      <c r="D45">
+        <v>1817</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="14">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="10">
+        <v>8.4499999999999992E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
@@ -2942,8 +2983,11 @@
       <c r="B46" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>54</v>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
       </c>
       <c r="H46" s="5"/>
       <c r="M46" s="6"/>
@@ -2955,39 +2999,14 @@
       <c r="B47" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C47">
-        <v>3872</v>
-      </c>
-      <c r="D47">
-        <v>5081</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>61</v>
+      <c r="F47" t="s">
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="11">
-        <v>7.5399999999999998E-3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="14">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="L47" s="14">
-        <v>8.9300000000000002E-4</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -2996,14 +3015,39 @@
       <c r="B48" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C48">
+        <v>3894</v>
+      </c>
+      <c r="D48">
+        <v>4511</v>
+      </c>
       <c r="E48" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="M48" s="6"/>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="14">
+        <v>5.7099999999999998E-3</v>
+      </c>
+      <c r="K48" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L48">
+        <v>3.761435E-3</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
@@ -3012,39 +3056,11 @@
       <c r="B49" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C49">
-        <v>8207</v>
-      </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="11">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="I49" s="14">
-        <v>5.1200000000000004E-3</v>
-      </c>
-      <c r="J49" s="14">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="K49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
@@ -3053,8 +3069,8 @@
       <c r="B50" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E50" t="s">
-        <v>58</v>
+      <c r="F50" t="s">
+        <v>54</v>
       </c>
       <c r="H50" s="5"/>
       <c r="M50" s="6"/>
@@ -3066,11 +3082,39 @@
       <c r="B51" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C51">
+        <v>3872</v>
+      </c>
+      <c r="D51">
+        <v>5081</v>
+      </c>
       <c r="E51" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="M51" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="11">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="14">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="L51" s="14">
+        <v>8.9300000000000002E-4</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
@@ -3079,39 +3123,14 @@
       <c r="B52" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C52">
-        <v>7147</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
       <c r="E52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="11">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="I52" s="14">
-        <v>2.4299999999999999E-3</v>
-      </c>
-      <c r="J52" s="14">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="K52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
@@ -3120,11 +3139,39 @@
       <c r="B53" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C53">
+        <v>8207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
       <c r="G53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="M53" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="H53" s="11">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="I53" s="14">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="J53" s="14">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
@@ -3133,39 +3180,11 @@
       <c r="B54" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C54">
-        <v>6619</v>
-      </c>
-      <c r="D54">
-        <v>6724</v>
-      </c>
       <c r="E54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1.1078325999999999E-2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="14">
-        <v>7.5399999999999998E-3</v>
-      </c>
-      <c r="L54" s="14">
-        <v>9.8600000000000007E-3</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H54" s="5"/>
+      <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
@@ -3174,39 +3193,11 @@
       <c r="B55" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C55">
-        <v>7905</v>
-      </c>
-      <c r="D55" t="s">
-        <v>66</v>
-      </c>
       <c r="E55" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="14">
-        <v>1.57E-3</v>
-      </c>
-      <c r="J55" s="14">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="K55">
-        <v>2.3743710000000001E-2</v>
-      </c>
-      <c r="L55" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
@@ -3215,17 +3206,39 @@
       <c r="B56" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C56">
+        <v>7147</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
       <c r="E56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="M56" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="I56" s="14">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
@@ -3234,8 +3247,8 @@
       <c r="B57" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E57" t="s">
-        <v>55</v>
+      <c r="G57" t="s">
+        <v>56</v>
       </c>
       <c r="H57" s="5"/>
       <c r="M57" s="6"/>
@@ -3247,35 +3260,35 @@
       <c r="B58" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C58" t="s">
-        <v>69</v>
+      <c r="C58">
+        <v>6619</v>
       </c>
       <c r="D58">
-        <v>5593</v>
+        <v>6724</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="11">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I58" s="14">
-        <v>1.52E-2</v>
+        <v>55</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1.1078325999999999E-2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
       </c>
-      <c r="K58" t="s">
-        <v>8</v>
+      <c r="K58" s="14">
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="L58" s="14">
-        <v>2.8299999999999999E-2</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>8</v>
@@ -3283,205 +3296,208 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59">
-        <v>5891</v>
-      </c>
-      <c r="D59">
-        <v>5982</v>
+        <v>7905</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="11">
-        <v>4.2400000000000001E-5</v>
+        <v>67</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="14">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="14">
-        <v>1.9599999999999999E-3</v>
-      </c>
-      <c r="L59" s="14">
-        <v>3.27E-2</v>
-      </c>
-      <c r="M59" s="10">
-        <v>4.8000000000000001E-4</v>
+        <v>1.57E-3</v>
+      </c>
+      <c r="J59" s="14">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="K59">
+        <v>2.3743710000000001E-2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H60" s="5"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61">
-        <v>4194</v>
-      </c>
-      <c r="D61">
-        <v>4435</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="11">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="14">
-        <v>1.25E-4</v>
-      </c>
-      <c r="K61" s="14">
-        <v>1.92E-3</v>
-      </c>
-      <c r="L61" s="14">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>76</v>
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <v>5593</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="M62" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="H62" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I62" s="14">
+        <v>1.52E-2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="14">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C63">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="D63">
-        <v>5949</v>
+        <v>5982</v>
       </c>
       <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H63" s="11">
-        <v>1.83E-4</v>
+        <v>4.2400000000000001E-5</v>
       </c>
       <c r="I63" s="14">
-        <v>1.9E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="J63" t="s">
         <v>8</v>
       </c>
-      <c r="K63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" t="s">
-        <v>8</v>
+      <c r="K63" s="14">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="L63" s="14">
+        <v>3.27E-2</v>
       </c>
       <c r="M63" s="10">
-        <v>5.4999999999999997E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H64" s="5"/>
       <c r="M64" s="6"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C65">
-        <v>4351</v>
+        <v>4194</v>
       </c>
       <c r="D65">
-        <v>4670</v>
+        <v>4435</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="15" t="s">
         <v>71</v>
       </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
       <c r="G65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="I65" t="s">
         <v>8</v>
       </c>
       <c r="J65" s="14">
-        <v>8.8199999999999997E-3</v>
+        <v>1.25E-4</v>
       </c>
       <c r="K65" s="14">
-        <v>7.0499999999999998E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="L65" s="14">
-        <v>7.5799999999999999E-3</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>8</v>
@@ -3489,44 +3505,19 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C66">
-        <v>3461</v>
-      </c>
-      <c r="D66" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>74</v>
+      <c r="F66" t="s">
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
-      </c>
-      <c r="H66" s="11">
-        <v>5.2399999999999999E-3</v>
-      </c>
-      <c r="I66" s="14">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J66" s="14">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="14">
-        <v>3.44E-2</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
@@ -3535,89 +3526,89 @@
       <c r="B67" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="C67">
+        <v>5893</v>
+      </c>
+      <c r="D67">
+        <v>5949</v>
+      </c>
       <c r="E67" t="s">
-        <v>77</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="M67" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="F67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1.83E-4</v>
+      </c>
+      <c r="I67" s="14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M67" s="10">
+        <v>5.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68">
-        <v>4134</v>
-      </c>
-      <c r="D68">
-        <v>4957</v>
-      </c>
-      <c r="E68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="11">
-        <v>1.44E-4</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="14">
-        <v>3.3700000000000001E-4</v>
-      </c>
-      <c r="K68" s="14">
-        <v>3.5799999999999998E-3</v>
-      </c>
-      <c r="L68" s="14">
-        <v>1.64E-3</v>
-      </c>
-      <c r="M68" s="10">
-        <v>7.8700000000000003E-3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="M68" s="6"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C69">
-        <v>5269</v>
+        <v>4351</v>
       </c>
       <c r="D69">
-        <v>5420</v>
+        <v>4670</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="F69" t="s">
+        <v>71</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="11">
-        <v>6.3400000000000001E-4</v>
+        <v>79</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I69" t="s">
         <v>8</v>
       </c>
       <c r="J69" s="14">
-        <v>3.65E-3</v>
+        <v>8.8199999999999997E-3</v>
       </c>
       <c r="K69" s="14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L69" t="s">
-        <v>8</v>
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="L69" s="14">
+        <v>7.5799999999999999E-3</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>8</v>
@@ -3625,40 +3616,40 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C70">
-        <v>2389</v>
-      </c>
-      <c r="D70">
-        <v>2714</v>
+        <v>3461</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H70" s="11">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" t="s">
-        <v>8</v>
-      </c>
-      <c r="K70" s="14">
-        <v>4.2099999999999999E-4</v>
+        <v>5.2399999999999999E-3</v>
+      </c>
+      <c r="I70" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J70" s="14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>8</v>
       </c>
       <c r="L70" s="14">
-        <v>4.6100000000000002E-5</v>
+        <v>3.44E-2</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>8</v>
@@ -3666,111 +3657,139 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71">
-        <v>7443</v>
-      </c>
-      <c r="D71">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" t="s">
-        <v>8</v>
-      </c>
-      <c r="J71" s="14">
-        <v>1.1E-12</v>
-      </c>
-      <c r="K71" s="14">
-        <v>4.02E-2</v>
-      </c>
-      <c r="L71" s="14">
-        <v>2.4099999999999998E-6</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="C72">
+        <v>4134</v>
       </c>
       <c r="D72">
-        <v>817</v>
+        <v>4957</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+      <c r="F72" t="s">
+        <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H72" s="11">
-        <v>1.99E-9</v>
-      </c>
-      <c r="I72" s="14">
-        <v>1.11E-6</v>
+        <v>1.44E-4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
       </c>
       <c r="J72" s="14">
-        <v>7.8299999999999996E-7</v>
+        <v>3.3700000000000001E-4</v>
       </c>
       <c r="K72" s="14">
-        <v>2.5699999999999999E-7</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="L72" s="14">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>8</v>
+        <v>1.64E-3</v>
+      </c>
+      <c r="M72" s="10">
+        <v>7.8700000000000003E-3</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="C73">
+        <v>5269</v>
+      </c>
+      <c r="D73">
+        <v>5420</v>
+      </c>
+      <c r="E73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s">
+        <v>86</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="M73" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="H73" s="11">
+        <v>6.3400000000000001E-4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="14">
+        <v>3.65E-3</v>
+      </c>
+      <c r="K73" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L73" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="C74">
+        <v>2389</v>
+      </c>
+      <c r="D74">
+        <v>2714</v>
+      </c>
+      <c r="E74" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" t="s">
+        <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
-      </c>
-      <c r="H74" s="5"/>
-      <c r="M74" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="14">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="L74" s="14">
+        <v>4.6100000000000002E-5</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
@@ -3780,37 +3799,37 @@
         <v>181</v>
       </c>
       <c r="C75">
-        <v>3071</v>
+        <v>7443</v>
       </c>
       <c r="D75">
-        <v>5027</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s">
         <v>88</v>
       </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="11">
-        <v>6.34E-9</v>
+      <c r="H75" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I75" t="s">
         <v>8</v>
       </c>
       <c r="J75" s="14">
-        <v>6.7700000000000004E-6</v>
+        <v>1.1E-12</v>
       </c>
       <c r="K75" s="14">
-        <v>4.6600000000000005E-10</v>
+        <v>4.02E-2</v>
       </c>
       <c r="L75" s="14">
-        <v>2.8699999999999998E-11</v>
-      </c>
-      <c r="M75" s="10">
-        <v>1.8699999999999999E-14</v>
+        <v>2.4099999999999998E-6</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -3820,35 +3839,35 @@
       <c r="B76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C76">
-        <v>101</v>
+      <c r="C76" t="s">
+        <v>90</v>
       </c>
       <c r="D76">
-        <v>758</v>
+        <v>817</v>
       </c>
       <c r="E76" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
         <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H76" s="11">
-        <v>5.9400000000000002E-10</v>
+        <v>1.99E-9</v>
       </c>
       <c r="I76" s="14">
-        <v>8.3099999999999996E-8</v>
+        <v>1.11E-6</v>
       </c>
       <c r="J76" s="14">
-        <v>2.9799999999999999E-7</v>
+        <v>7.8299999999999996E-7</v>
       </c>
       <c r="K76" s="14">
-        <v>4.7100000000000002E-7</v>
+        <v>2.5699999999999999E-7</v>
       </c>
       <c r="L76" s="14">
-        <v>1.17E-7</v>
+        <v>2.4600000000000002E-5</v>
       </c>
       <c r="M76" s="6" t="s">
         <v>8</v>
@@ -3862,7 +3881,7 @@
         <v>181</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H77" s="5"/>
       <c r="M77" s="6"/>
@@ -3874,39 +3893,11 @@
       <c r="B78" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C78">
-        <v>2991</v>
-      </c>
-      <c r="D78">
-        <v>3919</v>
-      </c>
-      <c r="E78" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="G78" t="s">
-        <v>94</v>
-      </c>
-      <c r="H78" s="11">
-        <v>7.6500000000000003E-8</v>
-      </c>
-      <c r="I78" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" t="s">
-        <v>8</v>
-      </c>
-      <c r="K78" s="14">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="L78" s="14">
-        <v>6.7400000000000003E-7</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="M78" s="6"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
@@ -3915,14 +3906,39 @@
       <c r="B79" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="C79">
+        <v>3071</v>
+      </c>
+      <c r="D79">
+        <v>5027</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" t="s">
         <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
-      </c>
-      <c r="H79" s="5"/>
-      <c r="M79" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="H79" s="11">
+        <v>6.34E-9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="14">
+        <v>6.7700000000000004E-6</v>
+      </c>
+      <c r="K79" s="14">
+        <v>4.6600000000000005E-10</v>
+      </c>
+      <c r="L79" s="14">
+        <v>2.8699999999999998E-11</v>
+      </c>
+      <c r="M79" s="10">
+        <v>1.8699999999999999E-14</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
@@ -3931,14 +3947,39 @@
       <c r="B80" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>91</v>
+      <c r="C80">
+        <v>101</v>
+      </c>
+      <c r="D80">
+        <v>758</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>92</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="M80" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H80" s="11">
+        <v>5.9400000000000002E-10</v>
+      </c>
+      <c r="I80" s="14">
+        <v>8.3099999999999996E-8</v>
+      </c>
+      <c r="J80" s="14">
+        <v>2.9799999999999999E-7</v>
+      </c>
+      <c r="K80" s="14">
+        <v>4.7100000000000002E-7</v>
+      </c>
+      <c r="L80" s="14">
+        <v>1.17E-7</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
@@ -3947,39 +3988,11 @@
       <c r="B81" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C81">
-        <v>2566</v>
-      </c>
-      <c r="D81">
-        <v>3906</v>
-      </c>
-      <c r="E81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="G81" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" s="11">
-        <v>1.4100000000000001E-7</v>
-      </c>
-      <c r="I81" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="14">
-        <v>7.7099999999999998E-3</v>
-      </c>
-      <c r="K81" s="14">
-        <v>8.6899999999999998E-4</v>
-      </c>
-      <c r="L81" s="14">
-        <v>4.6299999999999998E-8</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="M81" s="6"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
@@ -3988,14 +4001,39 @@
       <c r="B82" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C82">
+        <v>2991</v>
+      </c>
+      <c r="D82">
+        <v>3919</v>
+      </c>
       <c r="E82" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="M82" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="F82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="11">
+        <v>7.6500000000000003E-8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" s="14">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="L82" s="14">
+        <v>6.7400000000000003E-7</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
@@ -4004,39 +4042,14 @@
       <c r="B83" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C83">
-        <v>2236</v>
-      </c>
-      <c r="D83">
-        <v>2304</v>
-      </c>
-      <c r="E83" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>100</v>
+      <c r="F83" t="s">
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>88</v>
-      </c>
-      <c r="H83" s="11">
-        <v>1.34E-4</v>
-      </c>
-      <c r="I83" s="14">
-        <v>1.34E-3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="14">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="L83" s="14">
-        <v>2.3E-2</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="M83" s="6"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
@@ -4045,8 +4058,11 @@
       <c r="B84" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="F84" t="s">
+        <v>91</v>
+      </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H84" s="5"/>
       <c r="M84" s="6"/>
@@ -4058,35 +4074,35 @@
       <c r="B85" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" t="s">
-        <v>103</v>
+      <c r="C85">
+        <v>2566</v>
+      </c>
+      <c r="D85">
+        <v>3906</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="F85" t="s">
+        <v>95</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="14">
-        <v>1.2900000000000001E-14</v>
+        <v>94</v>
+      </c>
+      <c r="H85" s="11">
+        <v>1.4100000000000001E-7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
       </c>
       <c r="J85" s="14">
-        <v>5.8700000000000005E-14</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="K85" s="14">
-        <v>5.4000000000000001E-4</v>
+        <v>8.6899999999999998E-4</v>
       </c>
       <c r="L85" s="14">
-        <v>4.1600000000000002E-8</v>
+        <v>4.6299999999999998E-8</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>8</v>
@@ -4099,8 +4115,11 @@
       <c r="B86" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G86" t="s">
-        <v>88</v>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
       </c>
       <c r="H86" s="5"/>
       <c r="M86" s="6"/>
@@ -4112,35 +4131,35 @@
       <c r="B87" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" t="s">
-        <v>106</v>
+      <c r="C87">
+        <v>2236</v>
+      </c>
+      <c r="D87">
+        <v>2304</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="F87" t="s">
+        <v>100</v>
       </c>
       <c r="G87" t="s">
         <v>88</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>8</v>
+      <c r="H87" s="11">
+        <v>1.34E-4</v>
       </c>
       <c r="I87" s="14">
-        <v>1.14E-15</v>
-      </c>
-      <c r="J87" s="14">
-        <v>8.4800000000000002E-14</v>
+        <v>1.34E-3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
       </c>
       <c r="K87" s="14">
-        <v>4.6899999999999997E-18</v>
-      </c>
-      <c r="L87" t="s">
-        <v>8</v>
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="L87" s="14">
+        <v>2.3E-2</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>8</v>
@@ -4153,8 +4172,8 @@
       <c r="B88" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E88" t="s">
-        <v>107</v>
+      <c r="G88" t="s">
+        <v>93</v>
       </c>
       <c r="H88" s="5"/>
       <c r="M88" s="6"/>
@@ -4167,34 +4186,34 @@
         <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" t="s">
         <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="14">
-        <v>8.4699999999999997E-10</v>
+        <v>1.2900000000000001E-14</v>
       </c>
       <c r="J89" s="14">
-        <v>2.67E-7</v>
+        <v>5.8700000000000005E-14</v>
       </c>
       <c r="K89" s="14">
-        <v>3.0100000000000001E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="L89" s="14">
-        <v>1.94E-4</v>
+        <v>4.1600000000000002E-8</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>8</v>
@@ -4207,39 +4226,11 @@
       <c r="B90" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C90" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90">
-        <v>441</v>
-      </c>
-      <c r="E90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="15" t="s">
+      <c r="G90" t="s">
         <v>88</v>
       </c>
-      <c r="G90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" s="11">
-        <v>7.1199999999999996E-3</v>
-      </c>
-      <c r="I90" t="s">
-        <v>8</v>
-      </c>
-      <c r="J90" s="14">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="K90" s="14">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="L90" t="s">
-        <v>8</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H90" s="5"/>
+      <c r="M90" s="6"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
@@ -4248,74 +4239,71 @@
       <c r="B91" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="15" t="s">
-        <v>112</v>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" t="s">
+        <v>104</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
-      </c>
-      <c r="H91" s="5"/>
-      <c r="M91" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="14">
+        <v>1.14E-15</v>
+      </c>
+      <c r="J91" s="14">
+        <v>8.4800000000000002E-14</v>
+      </c>
+      <c r="K91" s="14">
+        <v>4.6899999999999997E-18</v>
+      </c>
+      <c r="L91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C92">
-        <v>3028</v>
-      </c>
-      <c r="D92">
-        <v>396</v>
-      </c>
       <c r="E92" t="s">
-        <v>121</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" t="s">
-        <v>115</v>
-      </c>
-      <c r="H92" s="11">
-        <v>5.8000000000000003E-52</v>
-      </c>
-      <c r="I92" s="14">
-        <v>3.2600000000000002E-76</v>
-      </c>
-      <c r="J92" s="14">
-        <v>2.2399999999999998E-71</v>
-      </c>
-      <c r="K92" s="14">
-        <v>6.1099999999999999E-44</v>
-      </c>
-      <c r="L92" s="14">
-        <v>1.54E-21</v>
-      </c>
-      <c r="M92" s="10">
-        <v>9.7700000000000003E-14</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="M92" s="6"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C93">
-        <v>7443</v>
-      </c>
-      <c r="D93">
-        <v>269</v>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="15" t="s">
-        <v>89</v>
+      <c r="F93" t="s">
+        <v>104</v>
       </c>
       <c r="G93" t="s">
         <v>88</v>
@@ -4323,17 +4311,17 @@
       <c r="H93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I93" t="s">
-        <v>8</v>
+      <c r="I93" s="14">
+        <v>8.4699999999999997E-10</v>
       </c>
       <c r="J93" s="14">
-        <v>4.5200000000000001E-12</v>
+        <v>2.67E-7</v>
       </c>
       <c r="K93" s="14">
-        <v>6.5899999999999998E-9</v>
+        <v>3.0100000000000001E-3</v>
       </c>
       <c r="L93" s="14">
-        <v>2.0400000000000001E-5</v>
+        <v>1.94E-4</v>
       </c>
       <c r="M93" s="6" t="s">
         <v>8</v>
@@ -4341,40 +4329,40 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C94">
-        <v>7733</v>
+      <c r="C94" t="s">
+        <v>110</v>
       </c>
       <c r="D94">
-        <v>847</v>
+        <v>441</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="F94" t="s">
+        <v>88</v>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94" s="11">
-        <v>5.5700000000000002E-8</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="14">
-        <v>4.7200000000000002E-9</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="K94" s="14">
-        <v>7.2499999999999995E-4</v>
-      </c>
-      <c r="L94" s="14">
-        <v>6.4500000000000002E-8</v>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L94" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="6" t="s">
         <v>8</v>
@@ -4382,13 +4370,16 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>117</v>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
       </c>
       <c r="H95" s="5"/>
       <c r="M95" s="6"/>
@@ -4401,37 +4392,37 @@
         <v>181</v>
       </c>
       <c r="C96">
-        <v>3070</v>
+        <v>3028</v>
       </c>
       <c r="D96">
-        <v>5027</v>
+        <v>396</v>
       </c>
       <c r="E96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>88</v>
+        <v>121</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H96" s="11">
-        <v>1.66E-8</v>
-      </c>
-      <c r="I96" t="s">
-        <v>8</v>
+        <v>5.8000000000000003E-52</v>
+      </c>
+      <c r="I96" s="14">
+        <v>3.2600000000000002E-76</v>
       </c>
       <c r="J96" s="14">
-        <v>1.77E-5</v>
+        <v>2.2399999999999998E-71</v>
       </c>
       <c r="K96" s="14">
-        <v>1.2199999999999999E-9</v>
+        <v>6.1099999999999999E-44</v>
       </c>
       <c r="L96" s="14">
-        <v>7.5199999999999996E-11</v>
+        <v>1.54E-21</v>
       </c>
       <c r="M96" s="10">
-        <v>4.8799999999999998E-14</v>
+        <v>9.7700000000000003E-14</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -4442,34 +4433,34 @@
         <v>181</v>
       </c>
       <c r="C97">
-        <v>6863</v>
+        <v>7443</v>
       </c>
       <c r="D97">
-        <v>793</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>95</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="F97" t="s">
+        <v>89</v>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
-      </c>
-      <c r="H97" s="11">
-        <v>2.09E-11</v>
-      </c>
-      <c r="I97" s="14">
-        <v>3.5199999999999999E-4</v>
+        <v>88</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
       </c>
       <c r="J97" s="14">
-        <v>9.9200000000000009E-10</v>
+        <v>4.5200000000000001E-12</v>
       </c>
       <c r="K97" s="14">
-        <v>3.4300000000000002E-6</v>
+        <v>6.5899999999999998E-9</v>
       </c>
       <c r="L97" s="14">
-        <v>9.1400000000000006E-6</v>
+        <v>2.0400000000000001E-5</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>8</v>
@@ -4482,14 +4473,39 @@
       <c r="B98" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>119</v>
+      <c r="C98">
+        <v>7733</v>
+      </c>
+      <c r="D98">
+        <v>847</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>116</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
-      </c>
-      <c r="H98" s="5"/>
-      <c r="M98" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H98" s="11">
+        <v>5.5700000000000002E-8</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="14">
+        <v>4.7200000000000002E-9</v>
+      </c>
+      <c r="K98" s="14">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="L98" s="14">
+        <v>6.4500000000000002E-8</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
@@ -4498,39 +4514,11 @@
       <c r="B99" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" t="s">
-        <v>120</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I99" s="14">
-        <v>2.1199999999999999E-11</v>
-      </c>
-      <c r="J99" s="14">
-        <v>1.0699999999999999E-11</v>
-      </c>
-      <c r="K99" s="14">
-        <v>5.1999999999999997E-16</v>
-      </c>
-      <c r="L99" t="s">
-        <v>8</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="F99" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="M99" s="6"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
@@ -4540,37 +4528,37 @@
         <v>181</v>
       </c>
       <c r="C100">
-        <v>6796</v>
-      </c>
-      <c r="D100" t="s">
-        <v>126</v>
+        <v>3070</v>
+      </c>
+      <c r="D100">
+        <v>5027</v>
       </c>
       <c r="E100" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="F100" t="s">
+        <v>88</v>
       </c>
       <c r="G100" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H100" s="11">
-        <v>1.66E-4</v>
-      </c>
-      <c r="I100" s="14">
-        <v>9.6100000000000005E-4</v>
-      </c>
-      <c r="J100" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="6" t="s">
-        <v>8</v>
+        <v>1.66E-8</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="14">
+        <v>1.77E-5</v>
+      </c>
+      <c r="K100" s="14">
+        <v>1.2199999999999999E-9</v>
+      </c>
+      <c r="L100" s="14">
+        <v>7.5199999999999996E-11</v>
+      </c>
+      <c r="M100" s="10">
+        <v>4.8799999999999998E-14</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -4580,11 +4568,39 @@
       <c r="B101" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C101">
+        <v>6863</v>
+      </c>
+      <c r="D101">
+        <v>793</v>
+      </c>
+      <c r="E101" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" t="s">
+        <v>118</v>
+      </c>
       <c r="G101" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="5"/>
-      <c r="M101" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H101" s="11">
+        <v>2.09E-11</v>
+      </c>
+      <c r="I101" s="14">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="J101" s="14">
+        <v>9.9200000000000009E-10</v>
+      </c>
+      <c r="K101" s="14">
+        <v>3.4300000000000002E-6</v>
+      </c>
+      <c r="L101" s="14">
+        <v>9.1400000000000006E-6</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
@@ -4593,39 +4609,14 @@
       <c r="B102" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C102">
-        <v>2237</v>
-      </c>
-      <c r="D102">
-        <v>2303</v>
-      </c>
-      <c r="E102" t="s">
-        <v>112</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>100</v>
+      <c r="F102" t="s">
+        <v>119</v>
       </c>
       <c r="G102" t="s">
         <v>88</v>
       </c>
-      <c r="H102" s="11">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="I102" s="14">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="J102" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="14">
-        <v>4.0299999999999997E-3</v>
-      </c>
-      <c r="L102" s="14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M102" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="H102" s="5"/>
+      <c r="M102" s="6"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
@@ -4634,35 +4625,35 @@
       <c r="B103" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C103">
-        <v>4437</v>
-      </c>
-      <c r="D103">
-        <v>5660</v>
+      <c r="C103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>123</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="F103" t="s">
+        <v>125</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
-      </c>
-      <c r="H103" s="11">
-        <v>1.33E-3</v>
-      </c>
-      <c r="I103" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" t="s">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="14">
+        <v>2.1199999999999999E-11</v>
+      </c>
+      <c r="J103" s="14">
+        <v>1.0699999999999999E-11</v>
       </c>
       <c r="K103" s="14">
-        <v>5.3699999999999998E-3</v>
-      </c>
-      <c r="L103" s="14">
-        <v>2.7100000000000002E-3</v>
+        <v>5.1999999999999997E-16</v>
+      </c>
+      <c r="L103" t="s">
+        <v>8</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>8</v>
@@ -4675,14 +4666,39 @@
       <c r="B104" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C104">
+        <v>6796</v>
+      </c>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
       <c r="E104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" t="s">
         <v>99</v>
       </c>
       <c r="G104" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="5"/>
-      <c r="M104" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="H104" s="11">
+        <v>1.66E-4</v>
+      </c>
+      <c r="I104" s="14">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="J104" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" t="s">
+        <v>8</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
@@ -4691,39 +4707,11 @@
       <c r="B105" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>384</v>
-      </c>
-      <c r="E105" t="s">
-        <v>114</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="G105" t="s">
-        <v>88</v>
-      </c>
-      <c r="H105" s="11">
-        <v>3.3899999999999998E-3</v>
-      </c>
-      <c r="I105" s="14">
-        <v>1.78E-2</v>
-      </c>
-      <c r="J105" s="14">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="K105" s="14">
-        <v>1.3799999999999999E-4</v>
-      </c>
-      <c r="L105" t="s">
-        <v>8</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="M105" s="6"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
@@ -4732,14 +4720,39 @@
       <c r="B106" s="5" t="s">
         <v>181</v>
       </c>
+      <c r="C106">
+        <v>2237</v>
+      </c>
+      <c r="D106">
+        <v>2303</v>
+      </c>
       <c r="E106" t="s">
         <v>112</v>
       </c>
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
       <c r="G106" t="s">
-        <v>93</v>
-      </c>
-      <c r="H106" s="5"/>
-      <c r="M106" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="H106" s="11">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="I106" s="14">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="14">
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="L106" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
@@ -4749,22 +4762,22 @@
         <v>181</v>
       </c>
       <c r="C107">
-        <v>3914</v>
+        <v>4437</v>
       </c>
       <c r="D107">
-        <v>4398</v>
+        <v>5660</v>
       </c>
       <c r="E107" t="s">
         <v>95</v>
       </c>
-      <c r="F107" s="15" t="s">
-        <v>104</v>
+      <c r="F107" t="s">
+        <v>118</v>
       </c>
       <c r="G107" t="s">
         <v>88</v>
       </c>
       <c r="H107" s="11">
-        <v>9.3600000000000003E-3</v>
+        <v>1.33E-3</v>
       </c>
       <c r="I107" t="s">
         <v>8</v>
@@ -4773,10 +4786,10 @@
         <v>8</v>
       </c>
       <c r="K107" s="14">
-        <v>3.04E-2</v>
+        <v>5.3699999999999998E-3</v>
       </c>
       <c r="L107" s="14">
-        <v>2.9600000000000001E-2</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M107" s="6" t="s">
         <v>8</v>
@@ -4792,6 +4805,9 @@
       <c r="E108" t="s">
         <v>99</v>
       </c>
+      <c r="G108" t="s">
+        <v>91</v>
+      </c>
       <c r="H108" s="5"/>
       <c r="M108" s="6"/>
     </row>
@@ -4803,34 +4819,34 @@
         <v>181</v>
       </c>
       <c r="C109">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>1933</v>
+        <v>384</v>
       </c>
       <c r="E109" t="s">
-        <v>115</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="F109" t="s">
+        <v>89</v>
       </c>
       <c r="G109" t="s">
         <v>88</v>
       </c>
       <c r="H109" s="11">
-        <v>1.44E-2</v>
-      </c>
-      <c r="I109" t="s">
-        <v>8</v>
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="I109" s="14">
+        <v>1.78E-2</v>
       </c>
       <c r="J109" s="14">
-        <v>8.2500000000000004E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="K109" s="14">
-        <v>5.3499999999999997E-3</v>
-      </c>
-      <c r="L109" s="14">
-        <v>9.4900000000000002E-3</v>
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="L109" t="s">
+        <v>8</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>8</v>
@@ -4843,39 +4859,14 @@
       <c r="B110" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C110">
-        <v>4182</v>
-      </c>
-      <c r="D110">
-        <v>4459</v>
-      </c>
       <c r="E110" t="s">
-        <v>113</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G110" t="s">
-        <v>94</v>
-      </c>
-      <c r="H110" s="5">
-        <v>1.191445E-2</v>
-      </c>
-      <c r="I110" t="s">
-        <v>8</v>
-      </c>
-      <c r="J110" t="s">
-        <v>8</v>
-      </c>
-      <c r="K110" s="14">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="L110" s="14">
-        <v>1.83E-2</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="M110" s="6"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
@@ -4884,14 +4875,39 @@
       <c r="B111" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="C111">
+        <v>3914</v>
+      </c>
+      <c r="D111">
+        <v>4398</v>
+      </c>
+      <c r="E111" t="s">
+        <v>95</v>
+      </c>
+      <c r="F111" t="s">
+        <v>104</v>
+      </c>
+      <c r="G111" t="s">
         <v>88</v>
       </c>
-      <c r="G111" t="s">
-        <v>128</v>
-      </c>
-      <c r="H111" s="5"/>
-      <c r="M111" s="6"/>
+      <c r="H111" s="11">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="14">
+        <v>3.04E-2</v>
+      </c>
+      <c r="L111" s="14">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
@@ -4900,48 +4916,48 @@
       <c r="B112" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F112" s="15" t="s">
-        <v>91</v>
+      <c r="E112" t="s">
+        <v>99</v>
       </c>
       <c r="H112" s="5"/>
       <c r="M112" s="6"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C113">
-        <v>1140</v>
+        <v>1752</v>
       </c>
       <c r="D113">
-        <v>1451</v>
+        <v>1933</v>
       </c>
       <c r="E113" t="s">
-        <v>129</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="F113" t="s">
+        <v>121</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="H113" s="11">
-        <v>5.7000000000000002E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I113" t="s">
         <v>8</v>
       </c>
       <c r="J113" s="14">
-        <v>7.7299999999999999E-3</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="K113" s="14">
-        <v>2.58E-2</v>
-      </c>
-      <c r="L113" t="s">
-        <v>8</v>
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="L113" s="14">
+        <v>9.4900000000000002E-3</v>
       </c>
       <c r="M113" s="6" t="s">
         <v>8</v>
@@ -4949,39 +4965,70 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C114">
+        <v>4182</v>
+      </c>
+      <c r="D114">
+        <v>4459</v>
       </c>
       <c r="E114" t="s">
-        <v>132</v>
-      </c>
-      <c r="H114" s="5"/>
-      <c r="M114" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="F114" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" t="s">
+        <v>94</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1.191445E-2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" t="s">
+        <v>8</v>
+      </c>
+      <c r="K114" s="14">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="L114" s="14">
+        <v>1.83E-2</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E115" t="s">
-        <v>133</v>
+        <v>181</v>
+      </c>
+      <c r="F115" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s">
+        <v>128</v>
       </c>
       <c r="H115" s="5"/>
       <c r="M115" s="6"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E116" t="s">
-        <v>134</v>
+        <v>181</v>
+      </c>
+      <c r="F116" t="s">
+        <v>91</v>
       </c>
       <c r="H116" s="5"/>
       <c r="M116" s="6"/>
@@ -4994,37 +5041,37 @@
         <v>184</v>
       </c>
       <c r="C117">
-        <v>3225</v>
+        <v>1140</v>
       </c>
       <c r="D117">
-        <v>7029</v>
+        <v>1451</v>
       </c>
       <c r="E117" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="15" t="s">
-        <v>136</v>
+      <c r="F117" t="s">
+        <v>131</v>
       </c>
       <c r="G117" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H117" s="11">
-        <v>4.64E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="I117" t="s">
         <v>8</v>
       </c>
-      <c r="J117" t="s">
-        <v>8</v>
+      <c r="J117" s="14">
+        <v>7.7299999999999999E-3</v>
       </c>
       <c r="K117" s="14">
-        <v>3.18E-5</v>
-      </c>
-      <c r="L117" s="14">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="M117" s="10">
-        <v>3.6600000000000001E-4</v>
+        <v>2.58E-2</v>
+      </c>
+      <c r="L117" t="s">
+        <v>8</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -5034,39 +5081,11 @@
       <c r="B118" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C118">
-        <v>7749</v>
-      </c>
-      <c r="D118">
-        <v>893</v>
-      </c>
       <c r="E118" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s">
-        <v>135</v>
-      </c>
-      <c r="H118" s="11">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>8</v>
-      </c>
-      <c r="J118" s="14">
-        <v>1.21E-2</v>
-      </c>
-      <c r="K118" s="14">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="L118" s="14">
-        <v>2.03E-4</v>
-      </c>
-      <c r="M118" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="M118" s="6"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
@@ -5075,39 +5094,11 @@
       <c r="B119" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C119">
-        <v>6645</v>
-      </c>
-      <c r="D119">
-        <v>6815</v>
-      </c>
       <c r="E119" t="s">
-        <v>137</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s">
-        <v>130</v>
-      </c>
-      <c r="H119" s="11">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="I119" t="s">
-        <v>8</v>
-      </c>
-      <c r="J119" t="s">
-        <v>8</v>
-      </c>
-      <c r="K119" s="14">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="L119" s="14">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M119" s="10">
-        <v>3.78E-2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="M119" s="6"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
@@ -5116,118 +5107,118 @@
       <c r="B120" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F120" s="15" t="s">
-        <v>138</v>
+      <c r="E120" t="s">
+        <v>134</v>
       </c>
       <c r="H120" s="5"/>
       <c r="M120" s="6"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C121">
-        <v>6898</v>
+        <v>3225</v>
       </c>
       <c r="D121">
-        <v>88</v>
+        <v>7029</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="F121" t="s">
+        <v>136</v>
       </c>
       <c r="G121" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H121" s="11">
-        <v>2.3499999999999999E-8</v>
+        <v>4.64E-3</v>
       </c>
       <c r="I121" t="s">
         <v>8</v>
       </c>
-      <c r="J121" s="14">
-        <v>1.2699999999999999E-6</v>
-      </c>
-      <c r="K121" t="s">
-        <v>8</v>
+      <c r="J121" t="s">
+        <v>8</v>
+      </c>
+      <c r="K121" s="14">
+        <v>3.18E-5</v>
       </c>
       <c r="L121" s="14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="M121" s="6" t="s">
-        <v>8</v>
+        <v>3.9700000000000003E-5</v>
+      </c>
+      <c r="M121" s="10">
+        <v>3.6600000000000001E-4</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C122">
-        <v>1421</v>
+        <v>7749</v>
       </c>
       <c r="D122">
-        <v>1609</v>
+        <v>893</v>
       </c>
       <c r="E122" t="s">
-        <v>137</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>141</v>
+        <v>200</v>
+      </c>
+      <c r="F122" t="s">
+        <v>130</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H122" s="11">
-        <v>1.2800000000000001E-3</v>
+        <v>1.29E-2</v>
       </c>
       <c r="I122" t="s">
         <v>8</v>
       </c>
       <c r="J122" s="14">
-        <v>1.01E-5</v>
-      </c>
-      <c r="K122" t="s">
-        <v>8</v>
+        <v>1.21E-2</v>
+      </c>
+      <c r="K122" s="14">
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="L122" s="14">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="M122" s="10">
-        <v>3.6099999999999999E-4</v>
+        <v>2.03E-4</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C123">
-        <v>1111</v>
+        <v>6645</v>
       </c>
       <c r="D123">
-        <v>1399</v>
+        <v>6815</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="F123" t="s">
+        <v>135</v>
       </c>
       <c r="G123" t="s">
         <v>130</v>
       </c>
       <c r="H123" s="11">
-        <v>3.1099999999999999E-3</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="I123" t="s">
         <v>8</v>
@@ -5236,24 +5227,24 @@
         <v>8</v>
       </c>
       <c r="K123" s="14">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="L123">
-        <v>3.5006714000000001E-2</v>
-      </c>
-      <c r="M123" s="6" t="s">
-        <v>8</v>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="L123" s="14">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M123" s="10">
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E124" t="s">
-        <v>132</v>
+      <c r="F124" t="s">
+        <v>138</v>
       </c>
       <c r="H124" s="5"/>
       <c r="M124" s="6"/>
@@ -5265,11 +5256,39 @@
       <c r="B125" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="C125">
+        <v>6898</v>
+      </c>
+      <c r="D125">
+        <v>88</v>
+      </c>
       <c r="E125" t="s">
-        <v>133</v>
-      </c>
-      <c r="H125" s="5"/>
-      <c r="M125" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="F125" t="s">
+        <v>137</v>
+      </c>
+      <c r="G125" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" s="11">
+        <v>2.3499999999999999E-8</v>
+      </c>
+      <c r="I125" t="s">
+        <v>8</v>
+      </c>
+      <c r="J125" s="14">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="K125" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
@@ -5279,37 +5298,37 @@
         <v>184</v>
       </c>
       <c r="C126">
-        <v>5970</v>
+        <v>1421</v>
       </c>
       <c r="D126">
-        <v>6560</v>
+        <v>1609</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="F126" t="s">
+        <v>141</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H126" s="11">
-        <v>4.3600000000000002E-3</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
       </c>
-      <c r="J126" t="s">
-        <v>8</v>
-      </c>
-      <c r="K126" s="14">
-        <v>8.7699999999999996E-4</v>
+      <c r="J126" s="14">
+        <v>1.01E-5</v>
+      </c>
+      <c r="K126" t="s">
+        <v>8</v>
       </c>
       <c r="L126" s="14">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="M126" s="6" t="s">
-        <v>8</v>
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="M126" s="10">
+        <v>3.6099999999999999E-4</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -5319,35 +5338,35 @@
       <c r="B127" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" t="s">
-        <v>146</v>
+      <c r="C127">
+        <v>1111</v>
+      </c>
+      <c r="D127">
+        <v>1399</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>147</v>
+        <v>201</v>
+      </c>
+      <c r="F127" t="s">
+        <v>131</v>
       </c>
       <c r="G127" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H127" s="11">
-        <v>3.9699999999999999E-2</v>
+        <v>3.1099999999999999E-3</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
       </c>
-      <c r="J127" s="14">
-        <v>7.8100000000000001E-3</v>
+      <c r="J127" t="s">
+        <v>8</v>
       </c>
       <c r="K127" s="14">
-        <v>6.1200000000000003E-7</v>
-      </c>
-      <c r="L127" s="14">
-        <v>8.5899999999999995E-4</v>
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L127">
+        <v>3.5006714000000001E-2</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>8</v>
@@ -5360,307 +5379,251 @@
       <c r="B128" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="E128" t="s">
+        <v>132</v>
+      </c>
       <c r="H128" s="5"/>
       <c r="M128" s="6"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C129">
-        <v>6968</v>
-      </c>
-      <c r="D129">
-        <v>7180</v>
+        <v>184</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
-      <c r="H129" s="11">
-        <v>1.0400000000000001E-20</v>
-      </c>
-      <c r="I129" s="14">
-        <v>3.0899999999999997E-7</v>
-      </c>
-      <c r="J129" s="14">
-        <v>4.54E-21</v>
-      </c>
-      <c r="K129" s="14">
-        <v>9.7300000000000003E-11</v>
-      </c>
-      <c r="L129" s="14">
-        <v>6.3199999999999999E-10</v>
-      </c>
-      <c r="M129" s="10">
-        <v>8.0499999999999993E-9</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="M129" s="6"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="C130">
+        <v>5970</v>
+      </c>
+      <c r="D130">
+        <v>6560</v>
+      </c>
+      <c r="E130" t="s">
+        <v>201</v>
+      </c>
+      <c r="F130" t="s">
+        <v>142</v>
       </c>
       <c r="G130" t="s">
-        <v>150</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="M130" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="H130" s="11">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" t="s">
+        <v>8</v>
+      </c>
+      <c r="K130" s="14">
+        <v>8.7699999999999996E-4</v>
+      </c>
+      <c r="L130" s="14">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131">
-        <v>915</v>
+        <v>145</v>
+      </c>
+      <c r="D131" t="s">
+        <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>149</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="F131" t="s">
+        <v>147</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="H131" s="11">
-        <v>4.6999999999999999E-6</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="I131" t="s">
         <v>8</v>
       </c>
       <c r="J131" s="14">
-        <v>5.4699999999999996E-4</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="K131" s="14">
-        <v>1.1900000000000001E-8</v>
+        <v>6.1200000000000003E-7</v>
       </c>
       <c r="L131" s="14">
-        <v>1.7600000000000001E-6</v>
-      </c>
-      <c r="M131" s="10">
-        <v>1.66E-4</v>
+        <v>8.5899999999999995E-4</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132">
-        <v>1128</v>
-      </c>
-      <c r="D132">
-        <v>1887</v>
-      </c>
-      <c r="E132" t="s">
-        <v>156</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G132" t="s">
-        <v>153</v>
-      </c>
-      <c r="H132" s="11">
-        <v>6.1900000000000002E-3</v>
-      </c>
-      <c r="I132" t="s">
-        <v>8</v>
-      </c>
-      <c r="J132" s="14">
-        <v>1.06E-2</v>
-      </c>
-      <c r="K132" s="14">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="L132">
-        <v>4.2472084E-2</v>
-      </c>
-      <c r="M132" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="M132" s="6"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C133">
-        <v>5039</v>
+        <v>6968</v>
       </c>
       <c r="D133">
-        <v>913</v>
+        <v>7180</v>
       </c>
       <c r="E133" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>149</v>
       </c>
       <c r="G133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H133" s="11">
-        <v>2.33E-15</v>
-      </c>
-      <c r="I133" t="s">
-        <v>8</v>
+        <v>1.0400000000000001E-20</v>
+      </c>
+      <c r="I133" s="14">
+        <v>3.0899999999999997E-7</v>
       </c>
       <c r="J133" s="14">
-        <v>6.5599999999999999E-6</v>
+        <v>4.54E-21</v>
       </c>
       <c r="K133" s="14">
-        <v>2.02E-4</v>
+        <v>9.7300000000000003E-11</v>
       </c>
       <c r="L133" s="14">
-        <v>5.0000000000000003E-10</v>
+        <v>6.3199999999999999E-10</v>
       </c>
       <c r="M133" s="10">
-        <v>2.6600000000000002E-14</v>
+        <v>8.0499999999999993E-9</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C134">
-        <v>3231</v>
-      </c>
-      <c r="D134" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" t="s">
-        <v>149</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>159</v>
+      <c r="F134" t="s">
+        <v>151</v>
       </c>
       <c r="G134" t="s">
-        <v>158</v>
-      </c>
-      <c r="H134" s="11">
-        <v>1.6299999999999999E-7</v>
-      </c>
-      <c r="I134" t="s">
-        <v>8</v>
-      </c>
-      <c r="J134" s="14">
-        <v>9.02E-8</v>
-      </c>
-      <c r="K134" s="14">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="L134" s="14">
-        <v>2.8799999999999999E-10</v>
-      </c>
-      <c r="M134" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="M134" s="6"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C135">
-        <v>6692</v>
+      <c r="C135" t="s">
+        <v>152</v>
       </c>
       <c r="D135">
-        <v>6832</v>
+        <v>915</v>
       </c>
       <c r="E135" t="s">
-        <v>161</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="F135" t="s">
+        <v>151</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="H135" s="11">
-        <v>1.56E-4</v>
+        <v>4.6999999999999999E-6</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
       </c>
       <c r="J135" s="14">
-        <v>9.8600000000000007E-3</v>
-      </c>
-      <c r="K135" t="s">
-        <v>8</v>
-      </c>
-      <c r="L135" t="s">
-        <v>8</v>
+        <v>5.4699999999999996E-4</v>
+      </c>
+      <c r="K135" s="14">
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="L135" s="14">
+        <v>1.7600000000000001E-6</v>
       </c>
       <c r="M135" s="10">
-        <v>9.7800000000000006E-5</v>
+        <v>1.66E-4</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C136">
-        <v>539</v>
+        <v>1128</v>
       </c>
       <c r="D136">
-        <v>749</v>
+        <v>1887</v>
       </c>
       <c r="E136" t="s">
-        <v>202</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="F136" t="s">
+        <v>154</v>
       </c>
       <c r="G136" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H136" s="11">
-        <v>2.2000000000000001E-3</v>
+        <v>6.1900000000000002E-3</v>
       </c>
       <c r="I136" t="s">
         <v>8</v>
       </c>
-      <c r="J136" t="s">
-        <v>8</v>
+      <c r="J136" s="14">
+        <v>1.06E-2</v>
       </c>
       <c r="K136" s="14">
-        <v>3.81E-3</v>
-      </c>
-      <c r="L136" s="14">
-        <v>2.0199999999999999E-2</v>
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="L136">
+        <v>4.2472084E-2</v>
       </c>
       <c r="M136" s="6" t="s">
         <v>8</v>
@@ -5674,37 +5637,37 @@
         <v>187</v>
       </c>
       <c r="C137">
-        <v>6307</v>
+        <v>5039</v>
       </c>
       <c r="D137">
-        <v>54</v>
+        <v>913</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="F137" t="s">
+        <v>151</v>
       </c>
       <c r="G137" t="s">
         <v>149</v>
       </c>
       <c r="H137" s="11">
-        <v>2.2399999999999998E-3</v>
+        <v>2.33E-15</v>
       </c>
       <c r="I137" t="s">
         <v>8</v>
       </c>
-      <c r="J137" t="s">
-        <v>8</v>
+      <c r="J137" s="14">
+        <v>6.5599999999999999E-6</v>
       </c>
       <c r="K137" s="14">
-        <v>4.5099999999999998E-5</v>
+        <v>2.02E-4</v>
       </c>
       <c r="L137" s="14">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>8</v>
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="M137" s="10">
+        <v>2.6600000000000002E-14</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -5715,58 +5678,222 @@
         <v>187</v>
       </c>
       <c r="C138">
+        <v>3231</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>149</v>
+      </c>
+      <c r="F138" t="s">
+        <v>159</v>
+      </c>
+      <c r="G138" t="s">
+        <v>158</v>
+      </c>
+      <c r="H138" s="11">
+        <v>1.6299999999999999E-7</v>
+      </c>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="14">
+        <v>9.02E-8</v>
+      </c>
+      <c r="K138" s="14">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="L138" s="14">
+        <v>2.8799999999999999E-10</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139">
+        <v>6692</v>
+      </c>
+      <c r="D139">
+        <v>6832</v>
+      </c>
+      <c r="E139" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" t="s">
+        <v>153</v>
+      </c>
+      <c r="G139" t="s">
+        <v>155</v>
+      </c>
+      <c r="H139" s="11">
+        <v>1.56E-4</v>
+      </c>
+      <c r="I139" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="14">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="K139" t="s">
+        <v>8</v>
+      </c>
+      <c r="L139" t="s">
+        <v>8</v>
+      </c>
+      <c r="M139" s="10">
+        <v>9.7800000000000006E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140">
+        <v>539</v>
+      </c>
+      <c r="D140">
+        <v>749</v>
+      </c>
+      <c r="E140" t="s">
+        <v>202</v>
+      </c>
+      <c r="F140" t="s">
+        <v>148</v>
+      </c>
+      <c r="G140" t="s">
+        <v>149</v>
+      </c>
+      <c r="H140" s="11">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" t="s">
+        <v>8</v>
+      </c>
+      <c r="K140" s="14">
+        <v>3.81E-3</v>
+      </c>
+      <c r="L140" s="14">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141">
+        <v>6307</v>
+      </c>
+      <c r="D141">
+        <v>54</v>
+      </c>
+      <c r="E141" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" t="s">
+        <v>160</v>
+      </c>
+      <c r="G141" t="s">
+        <v>149</v>
+      </c>
+      <c r="H141" s="11">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" t="s">
+        <v>8</v>
+      </c>
+      <c r="K141" s="14">
+        <v>4.5099999999999998E-5</v>
+      </c>
+      <c r="L141" s="14">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C142">
         <v>1482</v>
       </c>
-      <c r="D138">
+      <c r="D142">
         <v>1660</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E142" t="s">
         <v>162</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F142" t="s">
         <v>163</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G142" t="s">
         <v>151</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H142" s="11">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="I138" t="s">
-        <v>8</v>
-      </c>
-      <c r="J138" s="14">
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="14">
         <v>2.87E-2</v>
       </c>
-      <c r="K138">
+      <c r="K142">
         <v>4.4139616E-2</v>
       </c>
-      <c r="L138" t="s">
-        <v>8</v>
-      </c>
-      <c r="M138" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+      <c r="L142" t="s">
+        <v>8</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8" t="s">
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="9"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
